--- a/Analyzed/try2/data_2019.xlsx
+++ b/Analyzed/try2/data_2019.xlsx
@@ -541,13 +541,13 @@
         <v>1278.487</v>
       </c>
       <c r="L2">
-        <v>77.40000000000001</v>
+        <v>2709</v>
       </c>
       <c r="M2">
         <v>58.4309638177527</v>
       </c>
       <c r="N2">
-        <v>58.3</v>
+        <v>1690.7</v>
       </c>
       <c r="O2">
         <v>994.79</v>
@@ -580,10 +580,10 @@
         <v>3</v>
       </c>
       <c r="Y2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA2">
         <v>2</v>
@@ -592,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -632,13 +632,13 @@
         <v>1492.83</v>
       </c>
       <c r="L3">
-        <v>78.90000000000001</v>
+        <v>2761.5</v>
       </c>
       <c r="M3">
         <v>61.47969434106032</v>
       </c>
       <c r="N3">
-        <v>71.36</v>
+        <v>2069.44</v>
       </c>
       <c r="O3">
         <v>1042.08</v>
@@ -671,7 +671,7 @@
         <v>3</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -723,13 +723,13 @@
         <v>1108.952</v>
       </c>
       <c r="L4">
-        <v>65.90000000000001</v>
+        <v>2306.5</v>
       </c>
       <c r="M4">
         <v>70.97729906165699</v>
       </c>
       <c r="N4">
-        <v>73.79000000000001</v>
+        <v>2139.91</v>
       </c>
       <c r="O4">
         <v>1106.06</v>
@@ -762,7 +762,7 @@
         <v>9</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z4">
         <v>2</v>
@@ -774,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="AC4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -814,13 +814,13 @@
         <v>1504.575</v>
       </c>
       <c r="L5">
-        <v>65.2</v>
+        <v>2282</v>
       </c>
       <c r="M5">
         <v>67.25521012746613</v>
       </c>
       <c r="N5">
-        <v>79.41000000000001</v>
+        <v>2302.89</v>
       </c>
       <c r="O5">
         <v>1234.24</v>
@@ -853,10 +853,10 @@
         <v>2</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -905,13 +905,13 @@
         <v>2189.65</v>
       </c>
       <c r="L6">
-        <v>70.8</v>
+        <v>2478</v>
       </c>
       <c r="M6">
         <v>80.02207490010841</v>
       </c>
       <c r="N6">
-        <v>80.44</v>
+        <v>2332.76</v>
       </c>
       <c r="O6">
         <v>1292.88</v>
@@ -944,7 +944,7 @@
         <v>2</v>
       </c>
       <c r="Y6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z6">
         <v>4</v>
@@ -953,10 +953,10 @@
         <v>4</v>
       </c>
       <c r="AB6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         <v>1286.778</v>
       </c>
       <c r="L7">
-        <v>66.10000000000001</v>
+        <v>2313.5</v>
       </c>
       <c r="M7">
         <v>59.08872873297924</v>
       </c>
       <c r="N7">
-        <v>43.51000000000001</v>
+        <v>1261.79</v>
       </c>
       <c r="O7">
         <v>1201.13</v>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1087,13 +1087,13 @@
         <v>2024.204</v>
       </c>
       <c r="L8">
-        <v>60.3</v>
+        <v>2110.5</v>
       </c>
       <c r="M8">
         <v>85.18305339559194</v>
       </c>
       <c r="N8">
-        <v>31.21</v>
+        <v>905.09</v>
       </c>
       <c r="O8">
         <v>1088.36</v>
@@ -1178,13 +1178,13 @@
         <v>1434.028</v>
       </c>
       <c r="L9">
-        <v>65.10000000000001</v>
+        <v>2278.5</v>
       </c>
       <c r="M9">
         <v>75.65142515375403</v>
       </c>
       <c r="N9">
-        <v>64.83</v>
+        <v>1880.07</v>
       </c>
       <c r="O9">
         <v>944.17</v>
@@ -1217,10 +1217,10 @@
         <v>3</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA9">
         <v>4</v>
@@ -1229,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="AC9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1269,13 +1269,13 @@
         <v>1677.382</v>
       </c>
       <c r="L10">
-        <v>60.7</v>
+        <v>2124.5</v>
       </c>
       <c r="M10">
         <v>76.11493114660861</v>
       </c>
       <c r="N10">
-        <v>-2.179999999999999</v>
+        <v>-63.21999999999997</v>
       </c>
       <c r="O10">
         <v>1188.46</v>
@@ -1360,13 +1360,13 @@
         <v>1121.255</v>
       </c>
       <c r="L11">
-        <v>58.5</v>
+        <v>2047.5</v>
       </c>
       <c r="M11">
         <v>80.00266974615906</v>
       </c>
       <c r="N11">
-        <v>-56.18999999999999</v>
+        <v>-1629.51</v>
       </c>
       <c r="O11">
         <v>1280.16</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
